--- a/nmadb/501220.xlsx
+++ b/nmadb/501220.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="11985"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Study</t>
   </si>
@@ -132,26 +132,29 @@
     <t>Cardaropoli et al. (2012)</t>
   </si>
   <si>
-    <t>ta</t>
-  </si>
-  <si>
-    <t>tc</t>
-  </si>
-  <si>
     <t>se</t>
   </si>
   <si>
-    <t>md</t>
-  </si>
-  <si>
     <t>Outcome: change in gingival recession expressed as RecRed (mm) at follow-up visit</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>effect=md</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,14 +213,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -281,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,7 +312,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,21 +489,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
@@ -517,31 +513,31 @@
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -560,8 +556,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -581,7 +580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -601,7 +600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -621,7 +620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -641,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -661,7 +660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -684,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -710,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -736,7 +735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -762,7 +761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -788,7 +787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -814,7 +813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -840,7 +839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -866,7 +865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -886,7 +885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -906,7 +905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -926,7 +925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -946,7 +945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -966,7 +965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -986,7 +985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1026,7 +1025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1046,7 +1045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1066,7 +1065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1086,7 +1085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1113,7 +1112,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$L1&lt;&gt;$O1</formula>
     </cfRule>
   </conditionalFormatting>
